--- a/Code/Results/Cases/Case_2_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9417868902212092</v>
+        <v>0.72996587998216</v>
       </c>
       <c r="C2">
-        <v>0.09977918673483543</v>
+        <v>0.1260741705134976</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05541649394954717</v>
+        <v>0.1131151126661525</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>1.3533524807021</v>
+        <v>1.881139910082354</v>
       </c>
       <c r="H2">
-        <v>0.9180512208926785</v>
+        <v>1.62608349991342</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7405506318962694</v>
+        <v>0.3524533962567205</v>
       </c>
       <c r="L2">
-        <v>0.1458687543129713</v>
+        <v>0.1949625722139459</v>
       </c>
       <c r="M2">
-        <v>0.2049063973414036</v>
+        <v>0.194132664201959</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8237716585703652</v>
+        <v>0.7015787694087408</v>
       </c>
       <c r="C3">
-        <v>0.09709106452961791</v>
+        <v>0.1249385211811003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05394332567240845</v>
+        <v>0.1132122997500495</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>1.315315103537245</v>
+        <v>1.878022025669864</v>
       </c>
       <c r="H3">
-        <v>0.9087639666130372</v>
+        <v>1.629574383295832</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6414135979106561</v>
+        <v>0.3260699766826605</v>
       </c>
       <c r="L3">
-        <v>0.1328373633475479</v>
+        <v>0.1925609050790555</v>
       </c>
       <c r="M3">
-        <v>0.1810306313885235</v>
+        <v>0.1887435681158003</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.752118634432037</v>
+        <v>0.6845469246810012</v>
       </c>
       <c r="C4">
-        <v>0.09543379148721343</v>
+        <v>0.1242236898776916</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05309851427912271</v>
+        <v>0.1133083146848186</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>1.294075167522308</v>
+        <v>1.876923551168503</v>
       </c>
       <c r="H4">
-        <v>0.9042472487951585</v>
+        <v>1.632271618605628</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5810081349215892</v>
+        <v>0.3100425494185259</v>
       </c>
       <c r="L4">
-        <v>0.1250111482919323</v>
+        <v>0.1911798392513191</v>
       </c>
       <c r="M4">
-        <v>0.1665742846597986</v>
+        <v>0.1855385113821413</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7231010180294106</v>
+        <v>0.6777067096255962</v>
       </c>
       <c r="C5">
-        <v>0.09475626223817457</v>
+        <v>0.1239279735702823</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05276867407854269</v>
+        <v>0.1133565946677155</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>1.285922266509459</v>
+        <v>1.876680803271583</v>
       </c>
       <c r="H5">
-        <v>0.9026915546492233</v>
+        <v>1.633510005374532</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5564919718086259</v>
+        <v>0.30355471395319</v>
       </c>
       <c r="L5">
-        <v>0.1218628319024688</v>
+        <v>0.1906406110580576</v>
       </c>
       <c r="M5">
-        <v>0.1607296343620028</v>
+        <v>0.184258611349815</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7182930197108988</v>
+        <v>0.6765769708721336</v>
       </c>
       <c r="C6">
-        <v>0.09464361426710255</v>
+        <v>0.1238786031521641</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05271475911422741</v>
+        <v>0.1133651647815075</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>1.284598010816083</v>
+        <v>1.876652861791257</v>
       </c>
       <c r="H6">
-        <v>0.9024500677823397</v>
+        <v>1.633724047806325</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5524266069095489</v>
+        <v>0.3024800452238736</v>
       </c>
       <c r="L6">
-        <v>0.1213424411615023</v>
+        <v>0.1905524971959309</v>
       </c>
       <c r="M6">
-        <v>0.1597618058384924</v>
+        <v>0.1840476685420214</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7517265853663844</v>
+        <v>0.6844542681918711</v>
       </c>
       <c r="C7">
-        <v>0.09542466351068413</v>
+        <v>0.1242197196352883</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0530940082787037</v>
+        <v>0.1133089287252762</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>1.293963217376501</v>
+        <v>1.876919448173552</v>
       </c>
       <c r="H7">
-        <v>0.904225131528051</v>
+        <v>1.632287756172857</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5806771204713357</v>
+        <v>0.3099548759250155</v>
       </c>
       <c r="L7">
-        <v>0.1249685272415348</v>
+        <v>0.1911724715556886</v>
       </c>
       <c r="M7">
-        <v>0.1664952797241064</v>
+        <v>0.1855211440837188</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9009137828397797</v>
+        <v>0.7200955949786021</v>
       </c>
       <c r="C8">
-        <v>0.09885342357190297</v>
+        <v>0.1256862343411598</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05489578486745117</v>
+        <v>0.1131410887035518</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>1.339779981815894</v>
+        <v>1.879895346486094</v>
       </c>
       <c r="H8">
-        <v>0.9145946603904918</v>
+        <v>1.627172197010879</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7062608097161132</v>
+        <v>0.3433207814575212</v>
       </c>
       <c r="L8">
-        <v>0.1413372567621849</v>
+        <v>0.1941150795467692</v>
       </c>
       <c r="M8">
-        <v>0.1966288543156232</v>
+        <v>0.192252983813372</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.20095622759078</v>
+        <v>0.7931358398373902</v>
       </c>
       <c r="C9">
-        <v>0.1055475384767917</v>
+        <v>0.1284233112840738</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05893146103634983</v>
+        <v>0.1130997393740181</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.447828981315865</v>
+        <v>1.892219809543747</v>
       </c>
       <c r="H9">
-        <v>0.944978306273498</v>
+        <v>1.621536778939415</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9570747789520055</v>
+        <v>0.4101119950857992</v>
       </c>
       <c r="L9">
-        <v>0.1749769487060817</v>
+        <v>0.2006267630097298</v>
       </c>
       <c r="M9">
-        <v>0.2575668937454054</v>
+        <v>0.2062762401527003</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.427585493445889</v>
+        <v>0.8487110012825099</v>
       </c>
       <c r="C10">
-        <v>0.1104847671781002</v>
+        <v>0.1303503566079627</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06224555880503146</v>
+        <v>0.1132441465048721</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.540441753834727</v>
+        <v>1.905253866663713</v>
       </c>
       <c r="H10">
-        <v>0.9743904089250179</v>
+        <v>1.620080420160264</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.145418944010686</v>
+        <v>0.4600123503855116</v>
       </c>
       <c r="L10">
-        <v>0.2008595688179895</v>
+        <v>0.2058619868255818</v>
       </c>
       <c r="M10">
-        <v>0.3038148364701811</v>
+        <v>0.2170790081025444</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.532425552996642</v>
+        <v>0.8744079914804104</v>
       </c>
       <c r="C11">
-        <v>0.1127443487311268</v>
+        <v>0.1312089661045093</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06383937450666366</v>
+        <v>0.1133476641460653</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.585965986845764</v>
+        <v>1.912052720256895</v>
       </c>
       <c r="H11">
-        <v>0.9895450044305107</v>
+        <v>1.62000164375101</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.232304221180158</v>
+        <v>0.4828935470738145</v>
       </c>
       <c r="L11">
-        <v>0.2129432756252783</v>
+        <v>0.2083414654051836</v>
       </c>
       <c r="M11">
-        <v>0.325260590859763</v>
+        <v>0.2221018332932729</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.572412685554468</v>
+        <v>0.8841983169077139</v>
       </c>
       <c r="C12">
-        <v>0.1136028248172494</v>
+        <v>0.1315315187619461</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06445624307063369</v>
+        <v>0.1133922902675373</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.60374047370837</v>
+        <v>1.914752680743902</v>
       </c>
       <c r="H12">
-        <v>0.9955604143156904</v>
+        <v>1.620055809977856</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.265407845511305</v>
+        <v>0.4915840288818174</v>
       </c>
       <c r="L12">
-        <v>0.2175686008336868</v>
+        <v>0.209294439175693</v>
       </c>
       <c r="M12">
-        <v>0.3334478761388198</v>
+        <v>0.2240194181312347</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.563787400243598</v>
+        <v>0.8820871570034114</v>
       </c>
       <c r="C13">
-        <v>0.1134177963460985</v>
+        <v>0.1314621661063171</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06432278115841683</v>
+        <v>0.1133824381087152</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.599887806016881</v>
+        <v>1.914165614203569</v>
       </c>
       <c r="H13">
-        <v>0.9942522195707966</v>
+        <v>1.620040407591461</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.258268918506957</v>
+        <v>0.4897112307085365</v>
       </c>
       <c r="L13">
-        <v>0.2165701695201108</v>
+        <v>0.2090885749566809</v>
       </c>
       <c r="M13">
-        <v>0.331681522125848</v>
+        <v>0.2236057413724737</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.535709362249719</v>
+        <v>0.8752122581724677</v>
       </c>
       <c r="C14">
-        <v>0.1128149142335104</v>
+        <v>0.1312355544598702</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06388985201339636</v>
+        <v>0.1133512268889731</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.587417286984817</v>
+        <v>1.912272332867332</v>
       </c>
       <c r="H14">
-        <v>0.9900342206185542</v>
+        <v>1.620004416279556</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.23502345391239</v>
+        <v>0.4836080009069121</v>
       </c>
       <c r="L14">
-        <v>0.2133227820924191</v>
+        <v>0.2084195857713667</v>
       </c>
       <c r="M14">
-        <v>0.3259327897680535</v>
+        <v>0.2222592828800387</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.518549169210786</v>
+        <v>0.8710089144556434</v>
       </c>
       <c r="C15">
-        <v>0.1124460262686</v>
+        <v>0.1310964119389411</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06362643456742845</v>
+        <v>0.1133328153839024</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.579849942975471</v>
+        <v>1.911128981783691</v>
       </c>
       <c r="H15">
-        <v>0.9874872781431634</v>
+        <v>1.619993311187443</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.220812141117563</v>
+        <v>0.4798729595428313</v>
       </c>
       <c r="L15">
-        <v>0.2113402631689354</v>
+        <v>0.2080116391190074</v>
       </c>
       <c r="M15">
-        <v>0.3224203912817885</v>
+        <v>0.2214365613079039</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.420772032432581</v>
+        <v>0.8470399769593655</v>
       </c>
       <c r="C16">
-        <v>0.1103374438468947</v>
+        <v>0.1302938825099318</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06214321164869929</v>
+        <v>0.1132381414196004</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.537538892565465</v>
+        <v>1.904827072766693</v>
       </c>
       <c r="H16">
-        <v>0.973437527621968</v>
+        <v>1.620097319416487</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.139767448379729</v>
+        <v>0.4585206410936848</v>
       </c>
       <c r="L16">
-        <v>0.2000765148942349</v>
+        <v>0.2057019149774248</v>
       </c>
       <c r="M16">
-        <v>0.3024221429533256</v>
+        <v>0.2167529342001586</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.361260221061855</v>
+        <v>0.8324420148414049</v>
       </c>
       <c r="C17">
-        <v>0.1090479687393326</v>
+        <v>0.1297969474287797</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06125602079823089</v>
+        <v>0.1131897408359563</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>1.512484179200726</v>
+        <v>1.901184018898078</v>
       </c>
       <c r="H17">
-        <v>0.9652877354533018</v>
+        <v>1.620310672907408</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.090377701770791</v>
+        <v>0.4454679723367008</v>
       </c>
       <c r="L17">
-        <v>0.19324926454712</v>
+        <v>0.2043100354701437</v>
       </c>
       <c r="M17">
-        <v>0.2902634416974053</v>
+        <v>0.2139074468703157</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.327192569179942</v>
+        <v>0.8240847878159343</v>
       </c>
       <c r="C18">
-        <v>0.108307520851973</v>
+        <v>0.1295094276618087</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06075378731691217</v>
+        <v>0.1131654632540258</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.498389778338293</v>
+        <v>1.899170461107815</v>
       </c>
       <c r="H18">
-        <v>0.9607658578578366</v>
+        <v>1.620488327987374</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.062081737967588</v>
+        <v>0.4379774965668162</v>
       </c>
       <c r="L18">
-        <v>0.1893512273585003</v>
+        <v>0.2035186847430026</v>
       </c>
       <c r="M18">
-        <v>0.2833079210420451</v>
+        <v>0.2122810228655894</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.315684634436423</v>
+        <v>0.8212619057460984</v>
       </c>
       <c r="C19">
-        <v>0.1080570033426014</v>
+        <v>0.1294117869589044</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06058509614309493</v>
+        <v>0.113157855313867</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>1.493670623729713</v>
+        <v>1.898502749269852</v>
       </c>
       <c r="H19">
-        <v>0.9592626578133832</v>
+        <v>1.620557913163566</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.052519569001703</v>
+        <v>0.4354442887448329</v>
       </c>
       <c r="L19">
-        <v>0.1880362235953754</v>
+        <v>0.2032523318938075</v>
       </c>
       <c r="M19">
-        <v>0.2809591779086773</v>
+        <v>0.2117321018105116</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.36757834465547</v>
+        <v>0.8339919449079503</v>
       </c>
       <c r="C20">
-        <v>0.1091851029159869</v>
+        <v>0.1298500224877515</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06134962361513452</v>
+        <v>0.1131945246900532</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.515118219385613</v>
+        <v>1.901563356621153</v>
       </c>
       <c r="H20">
-        <v>0.9661379993347339</v>
+        <v>1.620282274578727</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.095623564180187</v>
+        <v>0.4468556855506733</v>
       </c>
       <c r="L20">
-        <v>0.1939730199258207</v>
+        <v>0.2044572492853547</v>
       </c>
       <c r="M20">
-        <v>0.2915537861985769</v>
+        <v>0.2142092960767101</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.543948488852095</v>
+        <v>0.8772299721912589</v>
       </c>
       <c r="C21">
-        <v>0.11299191138108</v>
+        <v>0.1313021858768266</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06401664438478605</v>
+        <v>0.1133602472184414</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>1.591065250255127</v>
+        <v>1.912825029983708</v>
       </c>
       <c r="H21">
-        <v>0.9912654590809211</v>
+        <v>1.620012707679649</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.241845486058764</v>
+        <v>0.4853999669223867</v>
       </c>
       <c r="L21">
-        <v>0.2142752336505254</v>
+        <v>0.2086157031090039</v>
       </c>
       <c r="M21">
-        <v>0.3276194694716281</v>
+        <v>0.2226543488746415</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.660905219556724</v>
+        <v>0.9058347948135292</v>
       </c>
       <c r="C22">
-        <v>0.1154967996185263</v>
+        <v>0.1322361992991929</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06583785277021903</v>
+        <v>0.113500178691492</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.643847145425099</v>
+        <v>1.920916163018347</v>
       </c>
       <c r="H22">
-        <v>1.009311880822452</v>
+        <v>1.620326156836541</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.338602882589157</v>
+        <v>0.5107415789486538</v>
       </c>
       <c r="L22">
-        <v>0.2278349818408856</v>
+        <v>0.2114153652275519</v>
       </c>
       <c r="M22">
-        <v>0.3515806589253785</v>
+        <v>0.2282642862156621</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.59831611803429</v>
+        <v>0.8905362852758003</v>
       </c>
       <c r="C23">
-        <v>0.1141580343253707</v>
+        <v>0.1317390746148845</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06485836147358981</v>
+        <v>0.1134226055123015</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.615371804714528</v>
+        <v>1.916530777840336</v>
       </c>
       <c r="H23">
-        <v>0.9995239458889102</v>
+        <v>1.620114043085778</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.28684235685509</v>
+        <v>0.4972025595424157</v>
       </c>
       <c r="L23">
-        <v>0.2205694979837176</v>
+        <v>0.2099136533354908</v>
       </c>
       <c r="M23">
-        <v>0.3387537042082016</v>
+        <v>0.2252618879486903</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.364721467367985</v>
+        <v>0.8332911114337094</v>
       </c>
       <c r="C24">
-        <v>0.1091231018512815</v>
+        <v>0.1298260329405352</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06130728147970999</v>
+        <v>0.1131923508555026</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.513926408116788</v>
+        <v>1.901391606110224</v>
       </c>
       <c r="H24">
-        <v>0.9657530872229358</v>
+        <v>1.620294942149769</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.093251603986289</v>
+        <v>0.4462282577898407</v>
       </c>
       <c r="L24">
-        <v>0.193645726266169</v>
+        <v>0.2043906663215722</v>
       </c>
       <c r="M24">
-        <v>0.2909703140048236</v>
+        <v>0.2140728005025707</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.118825454873274</v>
+        <v>0.7730402146849258</v>
       </c>
       <c r="C25">
-        <v>0.1037361696103858</v>
+        <v>0.1276976419417863</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0577816874409951</v>
+        <v>0.1130801840602693</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>1.416440159671666</v>
+        <v>1.888188613390327</v>
       </c>
       <c r="H25">
-        <v>0.9355880991509338</v>
+        <v>1.622590260580054</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8886085348961217</v>
+        <v>0.3918976081790504</v>
       </c>
       <c r="L25">
-        <v>0.165689069407982</v>
+        <v>0.198785908276264</v>
       </c>
       <c r="M25">
-        <v>0.2408492973511542</v>
+        <v>0.202394701055038</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.72996587998216</v>
+        <v>0.9417868902212376</v>
       </c>
       <c r="C2">
-        <v>0.1260741705134976</v>
+        <v>0.09977918673483543</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1131151126661525</v>
+        <v>0.05541649394956671</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.881139910082354</v>
+        <v>1.353352480702057</v>
       </c>
       <c r="H2">
-        <v>1.62608349991342</v>
+        <v>0.9180512208925222</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3524533962567205</v>
+        <v>0.7405506318963546</v>
       </c>
       <c r="L2">
-        <v>0.1949625722139459</v>
+        <v>0.1458687543130566</v>
       </c>
       <c r="M2">
-        <v>0.194132664201959</v>
+        <v>0.2049063973413823</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7015787694087408</v>
+        <v>0.8237716585703083</v>
       </c>
       <c r="C3">
-        <v>0.1249385211811003</v>
+        <v>0.0970910645293479</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1132122997500495</v>
+        <v>0.05394332567242799</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.878022025669864</v>
+        <v>1.315315103537174</v>
       </c>
       <c r="H3">
-        <v>1.629574383295832</v>
+        <v>0.9087639666130372</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3260699766826605</v>
+        <v>0.6414135979106419</v>
       </c>
       <c r="L3">
-        <v>0.1925609050790555</v>
+        <v>0.1328373633475977</v>
       </c>
       <c r="M3">
-        <v>0.1887435681158003</v>
+        <v>0.1810306313885164</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6845469246810012</v>
+        <v>0.7521186344319233</v>
       </c>
       <c r="C4">
-        <v>0.1242236898776916</v>
+        <v>0.09543379148732711</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1133083146848186</v>
+        <v>0.05309851427914047</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.876923551168503</v>
+        <v>1.294075167522351</v>
       </c>
       <c r="H4">
-        <v>1.632271618605628</v>
+        <v>0.9042472487951727</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3100425494185259</v>
+        <v>0.5810081349217029</v>
       </c>
       <c r="L4">
-        <v>0.1911798392513191</v>
+        <v>0.1250111482918612</v>
       </c>
       <c r="M4">
-        <v>0.1855385113821413</v>
+        <v>0.1665742846597986</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6777067096255962</v>
+        <v>0.7231010180294675</v>
       </c>
       <c r="C5">
-        <v>0.1239279735702823</v>
+        <v>0.09475626223779798</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1133565946677155</v>
+        <v>0.05276867407854091</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.876680803271583</v>
+        <v>1.285922266509488</v>
       </c>
       <c r="H5">
-        <v>1.633510005374532</v>
+        <v>0.9026915546491381</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.30355471395319</v>
+        <v>0.5564919718086117</v>
       </c>
       <c r="L5">
-        <v>0.1906406110580576</v>
+        <v>0.1218628319025754</v>
       </c>
       <c r="M5">
-        <v>0.184258611349815</v>
+        <v>0.1607296343619993</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6765769708721336</v>
+        <v>0.7182930197108988</v>
       </c>
       <c r="C6">
-        <v>0.1238786031521641</v>
+        <v>0.09464361426697465</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1133651647815075</v>
+        <v>0.05271475911424162</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.876652861791257</v>
+        <v>1.28459801081604</v>
       </c>
       <c r="H6">
-        <v>1.633724047806325</v>
+        <v>0.9024500677824534</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3024800452238736</v>
+        <v>0.5524266069095916</v>
       </c>
       <c r="L6">
-        <v>0.1905524971959309</v>
+        <v>0.1213424411615094</v>
       </c>
       <c r="M6">
-        <v>0.1840476685420214</v>
+        <v>0.1597618058384889</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6844542681918711</v>
+        <v>0.7517265853662991</v>
       </c>
       <c r="C7">
-        <v>0.1242197196352883</v>
+        <v>0.09542466351053847</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1133089287252762</v>
+        <v>0.05309400827870014</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.876919448173552</v>
+        <v>1.293963217376529</v>
       </c>
       <c r="H7">
-        <v>1.632287756172857</v>
+        <v>0.904225131528051</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3099548759250155</v>
+        <v>0.5806771204712362</v>
       </c>
       <c r="L7">
-        <v>0.1911724715556886</v>
+        <v>0.1249685272414354</v>
       </c>
       <c r="M7">
-        <v>0.1855211440837188</v>
+        <v>0.1664952797241241</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7200955949786021</v>
+        <v>0.9009137828398082</v>
       </c>
       <c r="C8">
-        <v>0.1256862343411598</v>
+        <v>0.0988534235718852</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1131410887035518</v>
+        <v>0.0548957848674636</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.879895346486094</v>
+        <v>1.339779981815909</v>
       </c>
       <c r="H8">
-        <v>1.627172197010879</v>
+        <v>0.9145946603903781</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3433207814575212</v>
+        <v>0.7062608097161984</v>
       </c>
       <c r="L8">
-        <v>0.1941150795467692</v>
+        <v>0.1413372567622559</v>
       </c>
       <c r="M8">
-        <v>0.192252983813372</v>
+        <v>0.1966288543156196</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7931358398373902</v>
+        <v>1.200956227590552</v>
       </c>
       <c r="C9">
-        <v>0.1284233112840738</v>
+        <v>0.105547538476813</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1130997393740181</v>
+        <v>0.05893146103634095</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.892219809543747</v>
+        <v>1.447828981315894</v>
       </c>
       <c r="H9">
-        <v>1.621536778939415</v>
+        <v>0.9449783062734838</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4101119950857992</v>
+        <v>0.957074778952034</v>
       </c>
       <c r="L9">
-        <v>0.2006267630097298</v>
+        <v>0.1749769487062167</v>
       </c>
       <c r="M9">
-        <v>0.2062762401527003</v>
+        <v>0.257566893745409</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8487110012825099</v>
+        <v>1.427585493446088</v>
       </c>
       <c r="C10">
-        <v>0.1303503566079627</v>
+        <v>0.1104847671780931</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1132441465048721</v>
+        <v>0.06224555880502436</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.905253866663713</v>
+        <v>1.540441753834756</v>
       </c>
       <c r="H10">
-        <v>1.620080420160264</v>
+        <v>0.9743904089250179</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4600123503855116</v>
+        <v>1.145418944010743</v>
       </c>
       <c r="L10">
-        <v>0.2058619868255818</v>
+        <v>0.2008595688179611</v>
       </c>
       <c r="M10">
-        <v>0.2170790081025444</v>
+        <v>0.3038148364701811</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8744079914804104</v>
+        <v>1.532425552996557</v>
       </c>
       <c r="C11">
-        <v>0.1312089661045093</v>
+        <v>0.112744348731141</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1133476641460653</v>
+        <v>0.06383937450667787</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.912052720256895</v>
+        <v>1.585965986845792</v>
       </c>
       <c r="H11">
-        <v>1.62000164375101</v>
+        <v>0.9895450044305107</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4828935470738145</v>
+        <v>1.232304221180158</v>
       </c>
       <c r="L11">
-        <v>0.2083414654051836</v>
+        <v>0.2129432756252925</v>
       </c>
       <c r="M11">
-        <v>0.2221018332932729</v>
+        <v>0.3252605908597488</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8841983169077139</v>
+        <v>1.572412685554639</v>
       </c>
       <c r="C12">
-        <v>0.1315315187619461</v>
+        <v>0.1136028248175336</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1133922902675373</v>
+        <v>0.06445624307065145</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.914752680743902</v>
+        <v>1.603740473708342</v>
       </c>
       <c r="H12">
-        <v>1.620055809977856</v>
+        <v>0.9955604143156052</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4915840288818174</v>
+        <v>1.265407845511362</v>
       </c>
       <c r="L12">
-        <v>0.209294439175693</v>
+        <v>0.217568600833701</v>
       </c>
       <c r="M12">
-        <v>0.2240194181312347</v>
+        <v>0.3334478761388269</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8820871570034114</v>
+        <v>1.563787400243484</v>
       </c>
       <c r="C13">
-        <v>0.1314621661063171</v>
+        <v>0.1134177963462406</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1133824381087152</v>
+        <v>0.06432278115840262</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.914165614203569</v>
+        <v>1.599887806016824</v>
       </c>
       <c r="H13">
-        <v>1.620040407591461</v>
+        <v>0.9942522195707966</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4897112307085365</v>
+        <v>1.258268918506843</v>
       </c>
       <c r="L13">
-        <v>0.2090885749566809</v>
+        <v>0.216570169520125</v>
       </c>
       <c r="M13">
-        <v>0.2236057413724737</v>
+        <v>0.3316815221258196</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8752122581724677</v>
+        <v>1.535709362249605</v>
       </c>
       <c r="C14">
-        <v>0.1312355544598702</v>
+        <v>0.1128149142335246</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1133512268889731</v>
+        <v>0.06388985201342479</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.912272332867332</v>
+        <v>1.587417286984845</v>
       </c>
       <c r="H14">
-        <v>1.620004416279556</v>
+        <v>0.9900342206186679</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4836080009069121</v>
+        <v>1.235023453912333</v>
       </c>
       <c r="L14">
-        <v>0.2084195857713667</v>
+        <v>0.2133227820924191</v>
       </c>
       <c r="M14">
-        <v>0.2222592828800387</v>
+        <v>0.3259327897680677</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8710089144556434</v>
+        <v>1.518549169210786</v>
       </c>
       <c r="C15">
-        <v>0.1310964119389411</v>
+        <v>0.1124460262687208</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1133328153839024</v>
+        <v>0.06362643456741424</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.911128981783691</v>
+        <v>1.579849942975528</v>
       </c>
       <c r="H15">
-        <v>1.619993311187443</v>
+        <v>0.9874872781431918</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4798729595428313</v>
+        <v>1.220812141117648</v>
       </c>
       <c r="L15">
-        <v>0.2080116391190074</v>
+        <v>0.2113402631689354</v>
       </c>
       <c r="M15">
-        <v>0.2214365613079039</v>
+        <v>0.3224203912817956</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8470399769593655</v>
+        <v>1.420772032432694</v>
       </c>
       <c r="C16">
-        <v>0.1302938825099318</v>
+        <v>0.1103374438468805</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1132381414196004</v>
+        <v>0.06214321164872061</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.904827072766693</v>
+        <v>1.537538892565522</v>
       </c>
       <c r="H16">
-        <v>1.620097319416487</v>
+        <v>0.973437527621968</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4585206410936848</v>
+        <v>1.1397674483797</v>
       </c>
       <c r="L16">
-        <v>0.2057019149774248</v>
+        <v>0.2000765148942207</v>
       </c>
       <c r="M16">
-        <v>0.2167529342001586</v>
+        <v>0.3024221429533185</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8324420148414049</v>
+        <v>1.361260221061798</v>
       </c>
       <c r="C17">
-        <v>0.1297969474287797</v>
+        <v>0.1090479687390555</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1131897408359563</v>
+        <v>0.06125602079820602</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.901184018898078</v>
+        <v>1.512484179200726</v>
       </c>
       <c r="H17">
-        <v>1.620310672907408</v>
+        <v>0.9652877354533302</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4454679723367008</v>
+        <v>1.090377701770819</v>
       </c>
       <c r="L17">
-        <v>0.2043100354701437</v>
+        <v>0.1932492645470916</v>
       </c>
       <c r="M17">
-        <v>0.2139074468703157</v>
+        <v>0.290263441697391</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8240847878159343</v>
+        <v>1.327192569179886</v>
       </c>
       <c r="C18">
-        <v>0.1295094276618087</v>
+        <v>0.1083075208520015</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1131654632540258</v>
+        <v>0.06075378731693171</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.899170461107815</v>
+        <v>1.498389778338264</v>
       </c>
       <c r="H18">
-        <v>1.620488327987374</v>
+        <v>0.9607658578578082</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4379774965668162</v>
+        <v>1.062081737967617</v>
       </c>
       <c r="L18">
-        <v>0.2035186847430026</v>
+        <v>0.1893512273584719</v>
       </c>
       <c r="M18">
-        <v>0.2122810228655894</v>
+        <v>0.2833079210420379</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8212619057460984</v>
+        <v>1.315684634436309</v>
       </c>
       <c r="C19">
-        <v>0.1294117869589044</v>
+        <v>0.108057003342509</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.113157855313867</v>
+        <v>0.06058509614308427</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.898502749269852</v>
+        <v>1.493670623729642</v>
       </c>
       <c r="H19">
-        <v>1.620557913163566</v>
+        <v>0.9592626578133832</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4354442887448329</v>
+        <v>1.052519569001731</v>
       </c>
       <c r="L19">
-        <v>0.2032523318938075</v>
+        <v>0.1880362235954749</v>
       </c>
       <c r="M19">
-        <v>0.2117321018105116</v>
+        <v>0.2809591779086773</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8339919449079503</v>
+        <v>1.367578344655499</v>
       </c>
       <c r="C20">
-        <v>0.1298500224877515</v>
+        <v>0.1091851029158661</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1131945246900532</v>
+        <v>0.06134962361510787</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.901563356621153</v>
+        <v>1.515118219385556</v>
       </c>
       <c r="H20">
-        <v>1.620282274578727</v>
+        <v>0.966137999334677</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4468556855506733</v>
+        <v>1.095623564180187</v>
       </c>
       <c r="L20">
-        <v>0.2044572492853547</v>
+        <v>0.1939730199258634</v>
       </c>
       <c r="M20">
-        <v>0.2142092960767101</v>
+        <v>0.2915537861985769</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8772299721912589</v>
+        <v>1.543948488852038</v>
       </c>
       <c r="C21">
-        <v>0.1313021858768266</v>
+        <v>0.1129919113810729</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1133602472184414</v>
+        <v>0.06401664438478605</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.912825029983708</v>
+        <v>1.591065250255156</v>
       </c>
       <c r="H21">
-        <v>1.620012707679649</v>
+        <v>0.9912654590809495</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4853999669223867</v>
+        <v>1.241845486058793</v>
       </c>
       <c r="L21">
-        <v>0.2086157031090039</v>
+        <v>0.2142752336504685</v>
       </c>
       <c r="M21">
-        <v>0.2226543488746415</v>
+        <v>0.3276194694716139</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9058347948135292</v>
+        <v>1.660905219556923</v>
       </c>
       <c r="C22">
-        <v>0.1322361992991929</v>
+        <v>0.11549679961864</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.113500178691492</v>
+        <v>0.06583785277022258</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.920916163018347</v>
+        <v>1.643847145425099</v>
       </c>
       <c r="H22">
-        <v>1.620326156836541</v>
+        <v>1.009311880822423</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5107415789486538</v>
+        <v>1.338602882589214</v>
       </c>
       <c r="L22">
-        <v>0.2114153652275519</v>
+        <v>0.2278349818408429</v>
       </c>
       <c r="M22">
-        <v>0.2282642862156621</v>
+        <v>0.3515806589253785</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8905362852758003</v>
+        <v>1.598316118034205</v>
       </c>
       <c r="C23">
-        <v>0.1317390746148845</v>
+        <v>0.1141580343253779</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1134226055123015</v>
+        <v>0.06485836147360047</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.916530777840336</v>
+        <v>1.615371804714499</v>
       </c>
       <c r="H23">
-        <v>1.620114043085778</v>
+        <v>0.9995239458890239</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4972025595424157</v>
+        <v>1.286842356855061</v>
       </c>
       <c r="L23">
-        <v>0.2099136533354908</v>
+        <v>0.2205694979836323</v>
       </c>
       <c r="M23">
-        <v>0.2252618879486903</v>
+        <v>0.3387537042082016</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8332911114337094</v>
+        <v>1.364721467368014</v>
       </c>
       <c r="C24">
-        <v>0.1298260329405352</v>
+        <v>0.1091231018512531</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1131923508555026</v>
+        <v>0.06130728147964248</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.901391606110224</v>
+        <v>1.51392640811676</v>
       </c>
       <c r="H24">
-        <v>1.620294942149769</v>
+        <v>0.9657530872227937</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4462282577898407</v>
+        <v>1.093251603986317</v>
       </c>
       <c r="L24">
-        <v>0.2043906663215722</v>
+        <v>0.1936457262662117</v>
       </c>
       <c r="M24">
-        <v>0.2140728005025707</v>
+        <v>0.2909703140048094</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7730402146849258</v>
+        <v>1.11882545487336</v>
       </c>
       <c r="C25">
-        <v>0.1276976419417863</v>
+        <v>0.103736169610535</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1130801840602693</v>
+        <v>0.05778168744100931</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.888188613390327</v>
+        <v>1.416440159671694</v>
       </c>
       <c r="H25">
-        <v>1.622590260580054</v>
+        <v>0.9355880991509338</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3918976081790504</v>
+        <v>0.8886085348961217</v>
       </c>
       <c r="L25">
-        <v>0.198785908276264</v>
+        <v>0.1656890694079252</v>
       </c>
       <c r="M25">
-        <v>0.202394701055038</v>
+        <v>0.2408492973511542</v>
       </c>
       <c r="N25">
         <v>0</v>
